--- a/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>273235</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262340</v>
+        <v>262567</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>279855</v>
+        <v>280319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9483267905812601</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9105125465362757</v>
+        <v>0.9113032248408702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9713031608077032</v>
+        <v>0.9729144700552433</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>501</v>
@@ -762,19 +762,19 @@
         <v>315450</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>311000</v>
+        <v>310457</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>319355</v>
+        <v>319137</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9750884995719349</v>
+        <v>0.9750884995719347</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9613335573066832</v>
+        <v>0.9596535689435304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9871609226428623</v>
+        <v>0.9864867451702901</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>781</v>
@@ -783,19 +783,19 @@
         <v>588685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>577176</v>
+        <v>578712</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>596151</v>
+        <v>596785</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9624817993226091</v>
+        <v>0.9624817993226094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9436648975572317</v>
+        <v>0.946177121122277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9746897194955292</v>
+        <v>0.9757260754905834</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5395</v>
+        <v>5042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21263</v>
+        <v>20522</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0383949792615505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01872417884604902</v>
+        <v>0.01749938691718593</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07379718436489019</v>
+        <v>0.07122678917665835</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -833,19 +833,19 @@
         <v>6138</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2838</v>
+        <v>3357</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10418</v>
+        <v>10615</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01897253374739578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008771300077534148</v>
+        <v>0.01037601084103299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03220161776877806</v>
+        <v>0.0328117103995299</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -854,19 +854,19 @@
         <v>17200</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10286</v>
+        <v>10414</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27654</v>
+        <v>26560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0281219101489971</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01681789264422785</v>
+        <v>0.01702581270883661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04521421203166805</v>
+        <v>0.04342493451676633</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>3166</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8390</v>
+        <v>9649</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01098925586518259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002671874755189182</v>
+        <v>0.002690334415339452</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02912120154033421</v>
+        <v>0.03348990110939109</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4490</v>
+        <v>3916</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003934681775508765</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0138789499953694</v>
+        <v>0.01210370784392222</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -925,19 +925,19 @@
         <v>4439</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1382</v>
+        <v>1441</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11040</v>
+        <v>11501</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007257896334271234</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002258748114033454</v>
+        <v>0.002356505495662056</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01804986915839872</v>
+        <v>0.01880325073680067</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3713</v>
+        <v>3382</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002288974292006969</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01288594243291444</v>
+        <v>0.0117382027650415</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3842</v>
+        <v>3328</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002004284905160814</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01187657685540246</v>
+        <v>0.0102885372003655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4434</v>
+        <v>4027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002138394194122303</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007250228245417905</v>
+        <v>0.006584709564129544</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>449776</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>437964</v>
+        <v>437997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>457998</v>
+        <v>458218</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9565466083642057</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9314259352185418</v>
+        <v>0.9314965186581167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9740335413664343</v>
+        <v>0.9745007477303497</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>665</v>
@@ -1121,19 +1121,19 @@
         <v>475638</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>465133</v>
+        <v>465857</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>483236</v>
+        <v>483093</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9459750779281989</v>
+        <v>0.9459750779281988</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9250824172112021</v>
+        <v>0.9265222304569319</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9610863524338488</v>
+        <v>0.9608007442808543</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1073</v>
@@ -1142,19 +1142,19 @@
         <v>925414</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>910991</v>
+        <v>908665</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>937074</v>
+        <v>936421</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9510837799112501</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.936260953750384</v>
+        <v>0.9338704888223025</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9630676391713354</v>
+        <v>0.9623961600807776</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>19169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11219</v>
+        <v>11096</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31020</v>
+        <v>31107</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04076766489505026</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02386041365594663</v>
+        <v>0.02359870593126656</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06597184392022477</v>
+        <v>0.06615519381570659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1192,19 +1192,19 @@
         <v>19990</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13372</v>
+        <v>13480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29456</v>
+        <v>28571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.039757434316295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0265951002159865</v>
+        <v>0.02680920007305005</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05858455436222457</v>
+        <v>0.05682298113613929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1213,19 +1213,19 @@
         <v>39159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29141</v>
+        <v>28240</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53965</v>
+        <v>53771</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0402456291895224</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02994983030897213</v>
+        <v>0.02902383399075999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05546147724216177</v>
+        <v>0.05526283607812989</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4333</v>
+        <v>4398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002685726740743924</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.009215435073687803</v>
+        <v>0.009354040602386128</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1263,19 +1263,19 @@
         <v>4288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1781</v>
+        <v>1558</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8366</v>
+        <v>8145</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.00852810324394823</v>
+        <v>0.008528103243948232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003541731628368641</v>
+        <v>0.003098822685448024</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01663855289817676</v>
+        <v>0.01619967839239844</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1284,19 +1284,19 @@
         <v>5551</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2601</v>
+        <v>2805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10377</v>
+        <v>10649</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005704769327603235</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002672962044706684</v>
+        <v>0.002882956983803353</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01066450696109085</v>
+        <v>0.01094427117211084</v>
       </c>
     </row>
     <row r="12">
@@ -1326,19 +1326,19 @@
         <v>2886</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7270</v>
+        <v>7258</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005739384511557998</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001237494707557448</v>
+        <v>0.001387974128325771</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01445904208075052</v>
+        <v>0.01443560064851839</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1347,19 +1347,19 @@
         <v>2886</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7166</v>
+        <v>7143</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002965821571624306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0006387185283128446</v>
+        <v>0.000708616290126235</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.007365134279172941</v>
+        <v>0.007341546273729183</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>356413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342461</v>
+        <v>342359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364172</v>
+        <v>364722</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9493507052469314</v>
+        <v>0.9493507052469311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9121888385527447</v>
+        <v>0.9119174132660981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9700181491635896</v>
+        <v>0.9714825781963373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>462</v>
@@ -1472,19 +1472,19 @@
         <v>356600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>343742</v>
+        <v>343883</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363771</v>
+        <v>364125</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9432534210866151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9092420019112148</v>
+        <v>0.9096154817256389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9622226258873194</v>
+        <v>0.9631593529899103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>761</v>
@@ -1493,19 +1493,19 @@
         <v>713012</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>696147</v>
+        <v>695096</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>725017</v>
+        <v>724808</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9462914424172711</v>
+        <v>0.946291442417271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9239094970031313</v>
+        <v>0.9225135649787145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9622250523283798</v>
+        <v>0.9619469356838233</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>15938</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8682</v>
+        <v>8046</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29717</v>
+        <v>30739</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04245300475710636</v>
+        <v>0.04245300475710635</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02312472223859232</v>
+        <v>0.0214313732706099</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0791541670899775</v>
+        <v>0.08187620781410246</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -1543,19 +1543,19 @@
         <v>16380</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10702</v>
+        <v>10804</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27274</v>
+        <v>28356</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04332828845253164</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02830830501455515</v>
+        <v>0.02857728477633241</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07214341572375026</v>
+        <v>0.0750057816449746</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>32</v>
@@ -1564,19 +1564,19 @@
         <v>32318</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>22016</v>
+        <v>21743</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>47925</v>
+        <v>47271</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.04289217124572927</v>
+        <v>0.04289217124572926</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02921867563607146</v>
+        <v>0.02885611584835182</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06360446307525812</v>
+        <v>0.06273707603705357</v>
       </c>
     </row>
     <row r="16">
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6754</v>
+        <v>6831</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.005546687472283313</v>
+        <v>0.005546687472283311</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01798893829041623</v>
+        <v>0.01819563600227176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1614,19 +1614,19 @@
         <v>5073</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1778</v>
+        <v>1423</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14819</v>
+        <v>14977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01341829046085335</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004704177392212393</v>
+        <v>0.003764345259130479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03919881207189584</v>
+        <v>0.03961668144680808</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1635,19 +1635,19 @@
         <v>7155</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2872</v>
+        <v>2934</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15619</v>
+        <v>16052</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.009496200370092136</v>
+        <v>0.009496200370092137</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003811525663516135</v>
+        <v>0.003893525195746587</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02072879314005342</v>
+        <v>0.0213031944430305</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5167</v>
+        <v>5660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002649602523679081</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01376229667128646</v>
+        <v>0.01507712330651006</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5977</v>
+        <v>6056</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001320185966907542</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.007931934417014994</v>
+        <v>0.0080380085366729</v>
       </c>
     </row>
     <row r="18">
@@ -1802,19 +1802,19 @@
         <v>408392</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>395552</v>
+        <v>396124</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>417086</v>
+        <v>416818</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9423882730317791</v>
+        <v>0.9423882730317793</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.912757286223367</v>
+        <v>0.9140779278283258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9624481430811481</v>
+        <v>0.9618296888175994</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>602</v>
@@ -1823,19 +1823,19 @@
         <v>450401</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>439646</v>
+        <v>439473</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>459375</v>
+        <v>458617</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9191669375697225</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8972191576976218</v>
+        <v>0.8968646192717621</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9374810906297459</v>
+        <v>0.9359334870104347</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1003</v>
@@ -1844,19 +1844,19 @@
         <v>858794</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>842946</v>
+        <v>841929</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>872550</v>
+        <v>871932</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9300652612474924</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.912901341841425</v>
+        <v>0.9118004235532218</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9449627399692938</v>
+        <v>0.9442934617697691</v>
       </c>
     </row>
     <row r="20">
@@ -1873,19 +1873,19 @@
         <v>19575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12317</v>
+        <v>12028</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31216</v>
+        <v>31117</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04517014677389417</v>
+        <v>0.04517014677389415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0284216419031911</v>
+        <v>0.02775578535263954</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0720328166317151</v>
+        <v>0.07180356480796531</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -1894,19 +1894,19 @@
         <v>31948</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24408</v>
+        <v>24575</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41642</v>
+        <v>41713</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06519900718196578</v>
+        <v>0.06519900718196579</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04981132147106828</v>
+        <v>0.05015191471616198</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08498196146992362</v>
+        <v>0.08512678341260924</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>72</v>
@@ -1915,19 +1915,19 @@
         <v>51523</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>39716</v>
+        <v>41245</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65651</v>
+        <v>67578</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05579898779114716</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04301233195868925</v>
+        <v>0.04466820343367027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07109910748720832</v>
+        <v>0.07318652894400031</v>
       </c>
     </row>
     <row r="21">
@@ -1944,19 +1944,19 @@
         <v>3661</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10906</v>
+        <v>10665</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008448250049732207</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001662773417144886</v>
+        <v>0.001658212102845148</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02516562499062294</v>
+        <v>0.02461110496465207</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1965,19 +1965,19 @@
         <v>4516</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1688</v>
+        <v>2012</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10126</v>
+        <v>10965</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.009215798812429246</v>
+        <v>0.00921579881242925</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003444301016287855</v>
+        <v>0.004106970237920097</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02066438240876209</v>
+        <v>0.02237622039240022</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1986,19 +1986,19 @@
         <v>8177</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3780</v>
+        <v>3966</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16135</v>
+        <v>16061</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008855569967365083</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004093898933659851</v>
+        <v>0.004295131407018424</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01747429882132938</v>
+        <v>0.01739338821180174</v>
       </c>
     </row>
     <row r="22">
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5720</v>
+        <v>6434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00399333014459445</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01319943116286864</v>
+        <v>0.01484708887642751</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2036,19 +2036,19 @@
         <v>3145</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8219</v>
+        <v>6952</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.006418256435882522</v>
+        <v>0.006418256435882523</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002199683880781705</v>
+        <v>0.00212907297930645</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01677272831304958</v>
+        <v>0.01418666230330219</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2057,19 +2057,19 @@
         <v>4876</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1925</v>
+        <v>2133</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10221</v>
+        <v>10784</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005280180993995291</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002085227543191159</v>
+        <v>0.00231004826034201</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0110691331461377</v>
+        <v>0.01167865619232211</v>
       </c>
     </row>
     <row r="23">
@@ -2161,19 +2161,19 @@
         <v>1487816</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1463970</v>
+        <v>1466828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1505820</v>
+        <v>1506695</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9493962166321833</v>
+        <v>0.9493962166321831</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9341795480767182</v>
+        <v>0.9360034379646258</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9608849672708467</v>
+        <v>0.9614431807287487</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2230</v>
@@ -2182,19 +2182,19 @@
         <v>1598089</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1579834</v>
+        <v>1580792</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1612845</v>
+        <v>1613556</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.943173610133794</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9323997057513623</v>
+        <v>0.9329650227941105</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9518822594070121</v>
+        <v>0.9523024248445826</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3618</v>
@@ -2203,19 +2203,19 @@
         <v>3085905</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3057788</v>
+        <v>3059640</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3110196</v>
+        <v>3111289</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9461635171762858</v>
+        <v>0.9461635171762857</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9375428047940734</v>
+        <v>0.9381106590982059</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9536114113421784</v>
+        <v>0.9539465622860698</v>
       </c>
     </row>
     <row r="25">
@@ -2232,19 +2232,19 @@
         <v>65745</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49597</v>
+        <v>48395</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87614</v>
+        <v>84799</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04195261358963518</v>
+        <v>0.04195261358963517</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03164858053917017</v>
+        <v>0.03088125797033161</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05590780690167929</v>
+        <v>0.05411111816507194</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>112</v>
@@ -2253,19 +2253,19 @@
         <v>74456</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61785</v>
+        <v>60535</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92251</v>
+        <v>89761</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04394334420853392</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0364648750208186</v>
+        <v>0.03572725255363318</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05444574270886283</v>
+        <v>0.05297567544604297</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>169</v>
@@ -2274,19 +2274,19 @@
         <v>140201</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118193</v>
+        <v>119130</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>166203</v>
+        <v>164842</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04298681586326732</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0362389334357859</v>
+        <v>0.03652618763226017</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05095918704499054</v>
+        <v>0.05054181141426093</v>
       </c>
     </row>
     <row r="26">
@@ -2303,19 +2303,19 @@
         <v>10173</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4846</v>
+        <v>4628</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18433</v>
+        <v>17903</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006491289344753013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003092576828553447</v>
+        <v>0.002953324881042563</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01176241168322443</v>
+        <v>0.01142386024839268</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -2324,19 +2324,19 @@
         <v>15150</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9167</v>
+        <v>9192</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24650</v>
+        <v>25305</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.00894106512192267</v>
+        <v>0.008941065121922668</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00541004162505179</v>
+        <v>0.005424858034892966</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01454794232998139</v>
+        <v>0.01493458043350116</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -2345,19 +2345,19 @@
         <v>25322</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16958</v>
+        <v>17648</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38317</v>
+        <v>37998</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.007763969663519278</v>
+        <v>0.007763969663519279</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005199482466279081</v>
+        <v>0.005411155642742999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01174824704253014</v>
+        <v>0.01165045516950822</v>
       </c>
     </row>
     <row r="27">
@@ -2374,19 +2374,19 @@
         <v>3385</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.002159880433428598</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -2395,19 +2395,19 @@
         <v>6679</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>14</v>
@@ -2416,19 +2416,19 @@
         <v>10064</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.003085697296927659</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="28">
